--- a/qimen-god.xlsx
+++ b/qimen-god.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="B:\GoogleDriveHoy\qimen-excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0609D55-13B2-4AA0-A927-66C9AE6AFCEA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0224B10C-BB6F-4667-9434-5E2A134D2955}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="330" windowWidth="25440" windowHeight="15540" activeTab="17" xr2:uid="{A1A8CDC9-BB31-492F-83EE-E1734383A27C}"/>
+    <workbookView xWindow="5955" yWindow="1965" windowWidth="21600" windowHeight="11505" activeTab="9" xr2:uid="{A1A8CDC9-BB31-492F-83EE-E1734383A27C}"/>
   </bookViews>
   <sheets>
     <sheet name="g01" sheetId="1" r:id="rId1"/>
@@ -65,7 +65,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="108" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="126" uniqueCount="7">
   <si>
     <t>戊</t>
   </si>
@@ -83,6 +83,9 @@
   </si>
   <si>
     <t>癸</t>
+  </si>
+  <si>
+    <t>局</t>
   </si>
 </sst>
 </file>
@@ -146,7 +149,6 @@
     <sheetNames>
       <sheetName val="地盤"/>
       <sheetName val="definition"/>
-      <sheetName val="qimen-earth"/>
     </sheetNames>
     <definedNames>
       <definedName name="branches" refersTo="='definition'!$C$2:$C$13"/>
@@ -185,8 +187,8 @@
           </cell>
         </row>
         <row r="2">
-          <cell r="A2" t="str">
-            <v>陽一</v>
+          <cell r="A2">
+            <v>1</v>
           </cell>
           <cell r="B2" t="str">
             <v>辛</v>
@@ -214,8 +216,8 @@
           </cell>
         </row>
         <row r="3">
-          <cell r="A3" t="str">
-            <v>陽二</v>
+          <cell r="A3">
+            <v>2</v>
           </cell>
           <cell r="B3" t="str">
             <v>庚</v>
@@ -243,8 +245,8 @@
           </cell>
         </row>
         <row r="4">
-          <cell r="A4" t="str">
-            <v>陽三</v>
+          <cell r="A4">
+            <v>3</v>
           </cell>
           <cell r="B4" t="str">
             <v>己</v>
@@ -272,8 +274,8 @@
           </cell>
         </row>
         <row r="5">
-          <cell r="A5" t="str">
-            <v>陽四</v>
+          <cell r="A5">
+            <v>4</v>
           </cell>
           <cell r="B5" t="str">
             <v>戊</v>
@@ -301,8 +303,8 @@
           </cell>
         </row>
         <row r="6">
-          <cell r="A6" t="str">
-            <v>陽五</v>
+          <cell r="A6">
+            <v>5</v>
           </cell>
           <cell r="B6" t="str">
             <v>乙</v>
@@ -330,8 +332,8 @@
           </cell>
         </row>
         <row r="7">
-          <cell r="A7" t="str">
-            <v>陽六</v>
+          <cell r="A7">
+            <v>6</v>
           </cell>
           <cell r="B7" t="str">
             <v>丙</v>
@@ -359,8 +361,8 @@
           </cell>
         </row>
         <row r="8">
-          <cell r="A8" t="str">
-            <v>陽七</v>
+          <cell r="A8">
+            <v>7</v>
           </cell>
           <cell r="B8" t="str">
             <v>丁</v>
@@ -388,8 +390,8 @@
           </cell>
         </row>
         <row r="9">
-          <cell r="A9" t="str">
-            <v>陽八</v>
+          <cell r="A9">
+            <v>8</v>
           </cell>
           <cell r="B9" t="str">
             <v>癸</v>
@@ -417,8 +419,8 @@
           </cell>
         </row>
         <row r="10">
-          <cell r="A10" t="str">
-            <v>陽九</v>
+          <cell r="A10">
+            <v>9</v>
           </cell>
           <cell r="B10" t="str">
             <v>壬</v>
@@ -446,8 +448,8 @@
           </cell>
         </row>
         <row r="11">
-          <cell r="A11" t="str">
-            <v>陰一</v>
+          <cell r="A11">
+            <v>-1</v>
           </cell>
           <cell r="B11" t="str">
             <v>丁</v>
@@ -475,8 +477,8 @@
           </cell>
         </row>
         <row r="12">
-          <cell r="A12" t="str">
-            <v>陰二</v>
+          <cell r="A12">
+            <v>-2</v>
           </cell>
           <cell r="B12" t="str">
             <v>丙</v>
@@ -504,8 +506,8 @@
           </cell>
         </row>
         <row r="13">
-          <cell r="A13" t="str">
-            <v>陰三</v>
+          <cell r="A13">
+            <v>-3</v>
           </cell>
           <cell r="B13" t="str">
             <v>乙</v>
@@ -533,8 +535,8 @@
           </cell>
         </row>
         <row r="14">
-          <cell r="A14" t="str">
-            <v>陰四</v>
+          <cell r="A14">
+            <v>-4</v>
           </cell>
           <cell r="B14" t="str">
             <v>戊</v>
@@ -562,8 +564,8 @@
           </cell>
         </row>
         <row r="15">
-          <cell r="A15" t="str">
-            <v>陰五</v>
+          <cell r="A15">
+            <v>-5</v>
           </cell>
           <cell r="B15" t="str">
             <v>己</v>
@@ -591,8 +593,8 @@
           </cell>
         </row>
         <row r="16">
-          <cell r="A16" t="str">
-            <v>陰六</v>
+          <cell r="A16">
+            <v>-6</v>
           </cell>
           <cell r="B16" t="str">
             <v>庚</v>
@@ -620,8 +622,8 @@
           </cell>
         </row>
         <row r="17">
-          <cell r="A17" t="str">
-            <v>陰七</v>
+          <cell r="A17">
+            <v>-7</v>
           </cell>
           <cell r="B17" t="str">
             <v>辛</v>
@@ -649,8 +651,8 @@
           </cell>
         </row>
         <row r="18">
-          <cell r="A18" t="str">
-            <v>陰八</v>
+          <cell r="A18">
+            <v>-8</v>
           </cell>
           <cell r="B18" t="str">
             <v>壬</v>
@@ -678,8 +680,8 @@
           </cell>
         </row>
         <row r="19">
-          <cell r="A19" t="str">
-            <v>陰九</v>
+          <cell r="A19">
+            <v>-9</v>
           </cell>
           <cell r="B19" t="str">
             <v>癸</v>
@@ -760,7 +762,7 @@
             <v>合</v>
           </cell>
           <cell r="I2" t="str">
-            <v>雀</v>
+            <v>玄</v>
           </cell>
         </row>
         <row r="3">
@@ -963,7 +965,7 @@
             <v>陳</v>
           </cell>
           <cell r="I9" t="str">
-            <v>陳</v>
+            <v>虎</v>
           </cell>
         </row>
         <row r="10">
@@ -1038,7 +1040,6 @@
           </cell>
         </row>
       </sheetData>
-      <sheetData sheetId="2" refreshError="1"/>
     </sheetDataSet>
   </externalBook>
 </externalLink>
@@ -1343,8 +1344,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64AF64A0-B7E6-4C36-8C90-E822D60E92A5}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1382,11 +1383,14 @@
         <f>[1]!directions</f>
         <v>離(S) 9</v>
       </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2">
         <f>INDEX([1]!EarthPlateMatrix, $K$2, COLUMN())</f>
-        <v>陽一</v>
+        <v>1</v>
       </c>
       <c r="B2" t="str">
         <f>INDEX([1]!EarthPlateMatrix, $K$2, COLUMN())</f>
@@ -3951,8 +3955,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F11505A4-4976-417A-B091-C51A53606D25}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M29" sqref="M29"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3990,11 +3994,14 @@
         <f>[1]!directions</f>
         <v>離(S) 9</v>
       </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2">
         <f>INDEX([1]!EarthPlateMatrix, -(-9+$K$2), COLUMN())</f>
-        <v>陰一</v>
+        <v>-1</v>
       </c>
       <c r="B2" t="str">
         <f>INDEX([1]!EarthPlateMatrix, -(-9+$K$2), COLUMN())</f>
@@ -4042,7 +4049,7 @@
       </c>
       <c r="B3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -4070,7 +4077,7 @@
       </c>
       <c r="I3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J62" si="0">$K$2</f>
@@ -4092,11 +4099,11 @@
       </c>
       <c r="D4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -4146,11 +4153,11 @@
       </c>
       <c r="G5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -4184,11 +4191,11 @@
       </c>
       <c r="F6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -4210,7 +4217,7 @@
       </c>
       <c r="B7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -4238,7 +4245,7 @@
       </c>
       <c r="I7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
@@ -4264,11 +4271,11 @@
       </c>
       <c r="E8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -4318,11 +4325,11 @@
       </c>
       <c r="H9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
@@ -4340,11 +4347,11 @@
       </c>
       <c r="C10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -4378,11 +4385,11 @@
       </c>
       <c r="B11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -4428,11 +4435,11 @@
       </c>
       <c r="D12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -4473,11 +4480,11 @@
       </c>
       <c r="E13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -4511,11 +4518,11 @@
       </c>
       <c r="D14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -4565,11 +4572,11 @@
       </c>
       <c r="G15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -4603,11 +4610,11 @@
       </c>
       <c r="F16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -4629,7 +4636,7 @@
       </c>
       <c r="B17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -4657,7 +4664,7 @@
       </c>
       <c r="I17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
@@ -4683,11 +4690,11 @@
       </c>
       <c r="E18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -4737,11 +4744,11 @@
       </c>
       <c r="H19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
@@ -4759,11 +4766,11 @@
       </c>
       <c r="C20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -4797,11 +4804,11 @@
       </c>
       <c r="B21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -4847,11 +4854,11 @@
       </c>
       <c r="D22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -4904,11 +4911,11 @@
       </c>
       <c r="H23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
@@ -4930,11 +4937,11 @@
       </c>
       <c r="D24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -4984,11 +4991,11 @@
       </c>
       <c r="G25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -5022,11 +5029,11 @@
       </c>
       <c r="F26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -5048,7 +5055,7 @@
       </c>
       <c r="B27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -5076,7 +5083,7 @@
       </c>
       <c r="I27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
@@ -5102,11 +5109,11 @@
       </c>
       <c r="E28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -5156,11 +5163,11 @@
       </c>
       <c r="H29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
@@ -5178,11 +5185,11 @@
       </c>
       <c r="C30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -5216,11 +5223,11 @@
       </c>
       <c r="B31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -5266,11 +5273,11 @@
       </c>
       <c r="D32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -5303,11 +5310,11 @@
       </c>
       <c r="C33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -5349,11 +5356,11 @@
       </c>
       <c r="D34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -5403,11 +5410,11 @@
       </c>
       <c r="G35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -5441,11 +5448,11 @@
       </c>
       <c r="F36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -5467,7 +5474,7 @@
       </c>
       <c r="B37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -5495,7 +5502,7 @@
       </c>
       <c r="I37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J37">
         <f t="shared" si="0"/>
@@ -5521,11 +5528,11 @@
       </c>
       <c r="E38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -5575,11 +5582,11 @@
       </c>
       <c r="H39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J39">
         <f t="shared" si="0"/>
@@ -5597,11 +5604,11 @@
       </c>
       <c r="C40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -5635,11 +5642,11 @@
       </c>
       <c r="B41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -5685,11 +5692,11 @@
       </c>
       <c r="D42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -5718,11 +5725,11 @@
       </c>
       <c r="B43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -5768,11 +5775,11 @@
       </c>
       <c r="D44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -5822,11 +5829,11 @@
       </c>
       <c r="G45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -5860,11 +5867,11 @@
       </c>
       <c r="F46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -5886,7 +5893,7 @@
       </c>
       <c r="B47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -5914,7 +5921,7 @@
       </c>
       <c r="I47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J47">
         <f t="shared" si="0"/>
@@ -5940,11 +5947,11 @@
       </c>
       <c r="E48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -5994,11 +6001,11 @@
       </c>
       <c r="H49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J49">
         <f t="shared" si="0"/>
@@ -6016,11 +6023,11 @@
       </c>
       <c r="C50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -6054,11 +6061,11 @@
       </c>
       <c r="B51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -6104,11 +6111,11 @@
       </c>
       <c r="D52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -6145,11 +6152,11 @@
       </c>
       <c r="D53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -6187,11 +6194,11 @@
       </c>
       <c r="D54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -6241,11 +6248,11 @@
       </c>
       <c r="G55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -6279,11 +6286,11 @@
       </c>
       <c r="F56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -6305,7 +6312,7 @@
       </c>
       <c r="B57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -6333,7 +6340,7 @@
       </c>
       <c r="I57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J57">
         <f t="shared" si="0"/>
@@ -6359,11 +6366,11 @@
       </c>
       <c r="E58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -6413,11 +6420,11 @@
       </c>
       <c r="H59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J59">
         <f t="shared" si="0"/>
@@ -6435,11 +6442,11 @@
       </c>
       <c r="C60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -6473,11 +6480,11 @@
       </c>
       <c r="B61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -6523,11 +6530,11 @@
       </c>
       <c r="D62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -6559,8 +6566,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F478EDC0-5F0E-40DE-8701-E5D8DC4785A9}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6598,11 +6605,14 @@
         <f>[1]!directions</f>
         <v>離(S) 9</v>
       </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2">
         <f>INDEX([1]!EarthPlateMatrix, -(-9+$K$2), COLUMN())</f>
-        <v>陰二</v>
+        <v>-2</v>
       </c>
       <c r="B2" t="str">
         <f>INDEX([1]!EarthPlateMatrix, -(-9+$K$2), COLUMN())</f>
@@ -6658,11 +6668,11 @@
       </c>
       <c r="D3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -6712,11 +6722,11 @@
       </c>
       <c r="G4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -6750,11 +6760,11 @@
       </c>
       <c r="F5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -6784,11 +6794,11 @@
       </c>
       <c r="D6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -6826,11 +6836,11 @@
       </c>
       <c r="D7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -6860,7 +6870,7 @@
       </c>
       <c r="B8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -6888,7 +6898,7 @@
       </c>
       <c r="I8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
@@ -6914,11 +6924,11 @@
       </c>
       <c r="E9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -6968,11 +6978,11 @@
       </c>
       <c r="H10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
@@ -6990,11 +7000,11 @@
       </c>
       <c r="C11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -7028,11 +7038,11 @@
       </c>
       <c r="B12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -7069,7 +7079,7 @@
       </c>
       <c r="B13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -7097,7 +7107,7 @@
       </c>
       <c r="I13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
@@ -7131,11 +7141,11 @@
       </c>
       <c r="G14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -7169,11 +7179,11 @@
       </c>
       <c r="F15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -7203,11 +7213,11 @@
       </c>
       <c r="D16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -7245,11 +7255,11 @@
       </c>
       <c r="D17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -7279,7 +7289,7 @@
       </c>
       <c r="B18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -7307,7 +7317,7 @@
       </c>
       <c r="I18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
@@ -7333,11 +7343,11 @@
       </c>
       <c r="E19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -7387,11 +7397,11 @@
       </c>
       <c r="H20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
@@ -7409,11 +7419,11 @@
       </c>
       <c r="C21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -7447,11 +7457,11 @@
       </c>
       <c r="B22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -7500,11 +7510,11 @@
       </c>
       <c r="E23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -7550,11 +7560,11 @@
       </c>
       <c r="G24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -7588,11 +7598,11 @@
       </c>
       <c r="F25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -7622,11 +7632,11 @@
       </c>
       <c r="D26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -7664,11 +7674,11 @@
       </c>
       <c r="D27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -7698,7 +7708,7 @@
       </c>
       <c r="B28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -7726,7 +7736,7 @@
       </c>
       <c r="I28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
@@ -7752,11 +7762,11 @@
       </c>
       <c r="E29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -7806,11 +7816,11 @@
       </c>
       <c r="H30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
@@ -7828,11 +7838,11 @@
       </c>
       <c r="C31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -7866,11 +7876,11 @@
       </c>
       <c r="B32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -7931,11 +7941,11 @@
       </c>
       <c r="H33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
@@ -7969,11 +7979,11 @@
       </c>
       <c r="G34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -8007,11 +8017,11 @@
       </c>
       <c r="F35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -8041,11 +8051,11 @@
       </c>
       <c r="D36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -8083,11 +8093,11 @@
       </c>
       <c r="D37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -8117,7 +8127,7 @@
       </c>
       <c r="B38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -8145,7 +8155,7 @@
       </c>
       <c r="I38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J38">
         <f t="shared" si="0"/>
@@ -8171,11 +8181,11 @@
       </c>
       <c r="E39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -8225,11 +8235,11 @@
       </c>
       <c r="H40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
@@ -8247,11 +8257,11 @@
       </c>
       <c r="C41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -8285,11 +8295,11 @@
       </c>
       <c r="B42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -8330,11 +8340,11 @@
       </c>
       <c r="C43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -8388,11 +8398,11 @@
       </c>
       <c r="G44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -8426,11 +8436,11 @@
       </c>
       <c r="F45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -8460,11 +8470,11 @@
       </c>
       <c r="D46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -8502,11 +8512,11 @@
       </c>
       <c r="D47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -8536,7 +8546,7 @@
       </c>
       <c r="B48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -8564,7 +8574,7 @@
       </c>
       <c r="I48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J48">
         <f t="shared" si="0"/>
@@ -8590,11 +8600,11 @@
       </c>
       <c r="E49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -8644,11 +8654,11 @@
       </c>
       <c r="H50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J50">
         <f t="shared" si="0"/>
@@ -8666,11 +8676,11 @@
       </c>
       <c r="C51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -8704,11 +8714,11 @@
       </c>
       <c r="B52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -8745,11 +8755,11 @@
       </c>
       <c r="B53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -8807,11 +8817,11 @@
       </c>
       <c r="G54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -8845,11 +8855,11 @@
       </c>
       <c r="F55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -8879,11 +8889,11 @@
       </c>
       <c r="D56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -8921,11 +8931,11 @@
       </c>
       <c r="D57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -8955,7 +8965,7 @@
       </c>
       <c r="B58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -8983,7 +8993,7 @@
       </c>
       <c r="I58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J58">
         <f t="shared" si="0"/>
@@ -9009,11 +9019,11 @@
       </c>
       <c r="E59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -9063,11 +9073,11 @@
       </c>
       <c r="H60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J60">
         <f t="shared" si="0"/>
@@ -9085,11 +9095,11 @@
       </c>
       <c r="C61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -9123,11 +9133,11 @@
       </c>
       <c r="B62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -9167,8 +9177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1D6B8308-54E8-4F30-817E-550566A827E3}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -9206,11 +9216,14 @@
         <f>[1]!directions</f>
         <v>離(S) 9</v>
       </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2">
         <f>INDEX([1]!EarthPlateMatrix, -(-9+$K$2), COLUMN())</f>
-        <v>陰三</v>
+        <v>-3</v>
       </c>
       <c r="B2" t="str">
         <f>INDEX([1]!EarthPlateMatrix, -(-9+$K$2), COLUMN())</f>
@@ -9278,11 +9291,11 @@
       </c>
       <c r="G3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -9316,11 +9329,11 @@
       </c>
       <c r="F4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -9350,11 +9363,11 @@
       </c>
       <c r="D5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -9384,11 +9397,11 @@
       </c>
       <c r="B6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -9446,11 +9459,11 @@
       </c>
       <c r="G7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -9476,11 +9489,11 @@
       </c>
       <c r="D8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -9510,7 +9523,7 @@
       </c>
       <c r="B9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -9538,7 +9551,7 @@
       </c>
       <c r="I9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J9">
         <f t="shared" si="0"/>
@@ -9564,11 +9577,11 @@
       </c>
       <c r="E10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -9618,11 +9631,11 @@
       </c>
       <c r="H11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
@@ -9640,11 +9653,11 @@
       </c>
       <c r="C12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -9685,11 +9698,11 @@
       </c>
       <c r="D13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -9735,11 +9748,11 @@
       </c>
       <c r="F14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -9769,11 +9782,11 @@
       </c>
       <c r="D15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -9803,11 +9816,11 @@
       </c>
       <c r="B16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -9865,11 +9878,11 @@
       </c>
       <c r="G17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -9895,11 +9908,11 @@
       </c>
       <c r="D18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -9929,7 +9942,7 @@
       </c>
       <c r="B19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -9957,7 +9970,7 @@
       </c>
       <c r="I19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J19">
         <f t="shared" si="0"/>
@@ -9983,11 +9996,11 @@
       </c>
       <c r="E20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -10037,11 +10050,11 @@
       </c>
       <c r="H21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
@@ -10059,11 +10072,11 @@
       </c>
       <c r="C22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -10096,7 +10109,7 @@
       </c>
       <c r="B23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -10124,7 +10137,7 @@
       </c>
       <c r="I23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J23">
         <f t="shared" si="0"/>
@@ -10154,11 +10167,11 @@
       </c>
       <c r="F24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -10188,11 +10201,11 @@
       </c>
       <c r="D25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -10222,11 +10235,11 @@
       </c>
       <c r="B26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -10284,11 +10297,11 @@
       </c>
       <c r="G27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -10314,11 +10327,11 @@
       </c>
       <c r="D28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -10348,7 +10361,7 @@
       </c>
       <c r="B29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -10376,7 +10389,7 @@
       </c>
       <c r="I29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J29">
         <f t="shared" si="0"/>
@@ -10402,11 +10415,11 @@
       </c>
       <c r="E30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -10456,11 +10469,11 @@
       </c>
       <c r="H31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
@@ -10478,11 +10491,11 @@
       </c>
       <c r="C32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -10527,11 +10540,11 @@
       </c>
       <c r="E33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -10573,11 +10586,11 @@
       </c>
       <c r="F34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -10607,11 +10620,11 @@
       </c>
       <c r="D35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -10641,11 +10654,11 @@
       </c>
       <c r="B36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -10703,11 +10716,11 @@
       </c>
       <c r="G37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -10733,11 +10746,11 @@
       </c>
       <c r="D38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -10767,7 +10780,7 @@
       </c>
       <c r="B39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -10795,7 +10808,7 @@
       </c>
       <c r="I39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J39">
         <f t="shared" si="0"/>
@@ -10821,11 +10834,11 @@
       </c>
       <c r="E40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -10875,11 +10888,11 @@
       </c>
       <c r="H41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J41">
         <f t="shared" si="0"/>
@@ -10897,11 +10910,11 @@
       </c>
       <c r="C42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -10958,11 +10971,11 @@
       </c>
       <c r="H43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J43">
         <f t="shared" si="0"/>
@@ -10992,11 +11005,11 @@
       </c>
       <c r="F44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -11026,11 +11039,11 @@
       </c>
       <c r="D45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -11060,11 +11073,11 @@
       </c>
       <c r="B46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -11122,11 +11135,11 @@
       </c>
       <c r="G47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -11152,11 +11165,11 @@
       </c>
       <c r="D48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -11186,7 +11199,7 @@
       </c>
       <c r="B49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -11214,7 +11227,7 @@
       </c>
       <c r="I49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J49">
         <f t="shared" si="0"/>
@@ -11240,11 +11253,11 @@
       </c>
       <c r="E50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -11294,11 +11307,11 @@
       </c>
       <c r="H51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J51">
         <f t="shared" si="0"/>
@@ -11316,11 +11329,11 @@
       </c>
       <c r="C52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -11357,11 +11370,11 @@
       </c>
       <c r="C53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -11411,11 +11424,11 @@
       </c>
       <c r="F54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -11445,11 +11458,11 @@
       </c>
       <c r="D55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -11479,11 +11492,11 @@
       </c>
       <c r="B56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -11541,11 +11554,11 @@
       </c>
       <c r="G57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -11571,11 +11584,11 @@
       </c>
       <c r="D58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -11605,7 +11618,7 @@
       </c>
       <c r="B59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -11633,7 +11646,7 @@
       </c>
       <c r="I59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J59">
         <f t="shared" si="0"/>
@@ -11659,11 +11672,11 @@
       </c>
       <c r="E60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -11713,11 +11726,11 @@
       </c>
       <c r="H61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J61">
         <f t="shared" si="0"/>
@@ -11735,11 +11748,11 @@
       </c>
       <c r="C62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -11775,8 +11788,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3361A21E-E8DC-4515-B8F2-D94538BAD144}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -11814,11 +11827,14 @@
         <f>[1]!directions</f>
         <v>離(S) 9</v>
       </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2">
         <f>INDEX([1]!EarthPlateMatrix, -(-9+$K$2), COLUMN())</f>
-        <v>陰四</v>
+        <v>-4</v>
       </c>
       <c r="B2" t="str">
         <f>INDEX([1]!EarthPlateMatrix, -(-9+$K$2), COLUMN())</f>
@@ -11882,11 +11898,11 @@
       </c>
       <c r="F3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -11916,11 +11932,11 @@
       </c>
       <c r="D4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -11950,11 +11966,11 @@
       </c>
       <c r="B5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -11996,11 +12012,11 @@
       </c>
       <c r="C6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -12050,11 +12066,11 @@
       </c>
       <c r="F7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -12096,11 +12112,11 @@
       </c>
       <c r="G8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -12126,11 +12142,11 @@
       </c>
       <c r="D9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -12160,7 +12176,7 @@
       </c>
       <c r="B10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -12188,7 +12204,7 @@
       </c>
       <c r="I10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J10">
         <f t="shared" si="0"/>
@@ -12214,11 +12230,11 @@
       </c>
       <c r="E11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -12268,11 +12284,11 @@
       </c>
       <c r="H12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
@@ -12305,11 +12321,11 @@
       </c>
       <c r="G13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -12335,11 +12351,11 @@
       </c>
       <c r="D14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -12369,11 +12385,11 @@
       </c>
       <c r="B15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -12415,11 +12431,11 @@
       </c>
       <c r="C16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -12469,11 +12485,11 @@
       </c>
       <c r="F17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -12515,11 +12531,11 @@
       </c>
       <c r="G18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -12545,11 +12561,11 @@
       </c>
       <c r="D19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -12579,7 +12595,7 @@
       </c>
       <c r="B20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -12607,7 +12623,7 @@
       </c>
       <c r="I20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J20">
         <f t="shared" si="0"/>
@@ -12633,11 +12649,11 @@
       </c>
       <c r="E21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -12687,11 +12703,11 @@
       </c>
       <c r="H22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
@@ -12712,11 +12728,11 @@
       </c>
       <c r="D23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -12754,11 +12770,11 @@
       </c>
       <c r="D24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -12788,11 +12804,11 @@
       </c>
       <c r="B25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -12834,11 +12850,11 @@
       </c>
       <c r="C26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -12888,11 +12904,11 @@
       </c>
       <c r="F27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -12934,11 +12950,11 @@
       </c>
       <c r="G28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -12964,11 +12980,11 @@
       </c>
       <c r="D29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -12998,7 +13014,7 @@
       </c>
       <c r="B30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -13026,7 +13042,7 @@
       </c>
       <c r="I30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J30">
         <f t="shared" si="0"/>
@@ -13052,11 +13068,11 @@
       </c>
       <c r="E31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -13106,11 +13122,11 @@
       </c>
       <c r="H32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J32">
         <f t="shared" si="0"/>
@@ -13123,7 +13139,7 @@
       </c>
       <c r="B33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -13151,7 +13167,7 @@
       </c>
       <c r="I33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J33">
         <f t="shared" si="0"/>
@@ -13173,11 +13189,11 @@
       </c>
       <c r="D34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -13207,11 +13223,11 @@
       </c>
       <c r="B35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -13253,11 +13269,11 @@
       </c>
       <c r="C36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -13307,11 +13323,11 @@
       </c>
       <c r="F37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -13353,11 +13369,11 @@
       </c>
       <c r="G38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -13383,11 +13399,11 @@
       </c>
       <c r="D39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -13417,7 +13433,7 @@
       </c>
       <c r="B40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -13445,7 +13461,7 @@
       </c>
       <c r="I40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J40">
         <f t="shared" si="0"/>
@@ -13471,11 +13487,11 @@
       </c>
       <c r="E41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -13525,11 +13541,11 @@
       </c>
       <c r="H42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J42">
         <f t="shared" si="0"/>
@@ -13554,11 +13570,11 @@
       </c>
       <c r="E43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -13592,11 +13608,11 @@
       </c>
       <c r="D44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -13626,11 +13642,11 @@
       </c>
       <c r="B45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -13672,11 +13688,11 @@
       </c>
       <c r="C46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -13726,11 +13742,11 @@
       </c>
       <c r="F47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -13772,11 +13788,11 @@
       </c>
       <c r="G48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -13802,11 +13818,11 @@
       </c>
       <c r="D49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -13836,7 +13852,7 @@
       </c>
       <c r="B50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -13864,7 +13880,7 @@
       </c>
       <c r="I50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J50">
         <f t="shared" si="0"/>
@@ -13890,11 +13906,11 @@
       </c>
       <c r="E51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -13944,11 +13960,11 @@
       </c>
       <c r="H52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J52">
         <f t="shared" si="0"/>
@@ -13985,11 +14001,11 @@
       </c>
       <c r="H53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J53">
         <f t="shared" si="0"/>
@@ -14011,11 +14027,11 @@
       </c>
       <c r="D54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -14045,11 +14061,11 @@
       </c>
       <c r="B55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -14091,11 +14107,11 @@
       </c>
       <c r="C56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -14145,11 +14161,11 @@
       </c>
       <c r="F57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -14191,11 +14207,11 @@
       </c>
       <c r="G58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -14221,11 +14237,11 @@
       </c>
       <c r="D59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -14255,7 +14271,7 @@
       </c>
       <c r="B60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -14283,7 +14299,7 @@
       </c>
       <c r="I60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J60">
         <f t="shared" si="0"/>
@@ -14309,11 +14325,11 @@
       </c>
       <c r="E61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -14363,11 +14379,11 @@
       </c>
       <c r="H62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J62">
         <f t="shared" si="0"/>
@@ -14383,8 +14399,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49419B2-FEC2-4DBD-B90F-55FFD2861F5A}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -14422,11 +14438,14 @@
         <f>[1]!directions</f>
         <v>離(S) 9</v>
       </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2">
         <f>INDEX([1]!EarthPlateMatrix, -(-9+$K$2), COLUMN())</f>
-        <v>陰五</v>
+        <v>-5</v>
       </c>
       <c r="B2" t="str">
         <f>INDEX([1]!EarthPlateMatrix, -(-9+$K$2), COLUMN())</f>
@@ -14482,11 +14501,11 @@
       </c>
       <c r="D3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -14516,11 +14535,11 @@
       </c>
       <c r="B4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -14562,11 +14581,11 @@
       </c>
       <c r="C5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -14624,11 +14643,11 @@
       </c>
       <c r="H6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
@@ -14650,11 +14669,11 @@
       </c>
       <c r="D7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -14700,11 +14719,11 @@
       </c>
       <c r="F8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -14746,11 +14765,11 @@
       </c>
       <c r="G9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -14776,11 +14795,11 @@
       </c>
       <c r="D10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -14810,7 +14829,7 @@
       </c>
       <c r="B11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -14838,7 +14857,7 @@
       </c>
       <c r="I11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J11">
         <f t="shared" si="0"/>
@@ -14864,11 +14883,11 @@
       </c>
       <c r="E12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -14909,11 +14928,11 @@
       </c>
       <c r="F13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -14935,11 +14954,11 @@
       </c>
       <c r="B14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -14981,11 +15000,11 @@
       </c>
       <c r="C15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -15043,11 +15062,11 @@
       </c>
       <c r="H16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
@@ -15069,11 +15088,11 @@
       </c>
       <c r="D17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -15119,11 +15138,11 @@
       </c>
       <c r="F18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -15165,11 +15184,11 @@
       </c>
       <c r="G19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -15195,11 +15214,11 @@
       </c>
       <c r="D20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -15229,7 +15248,7 @@
       </c>
       <c r="B21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -15257,7 +15276,7 @@
       </c>
       <c r="I21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J21">
         <f t="shared" si="0"/>
@@ -15283,11 +15302,11 @@
       </c>
       <c r="E22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -15332,11 +15351,11 @@
       </c>
       <c r="G23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -15354,11 +15373,11 @@
       </c>
       <c r="B24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -15400,11 +15419,11 @@
       </c>
       <c r="C25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -15462,11 +15481,11 @@
       </c>
       <c r="H26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
@@ -15488,11 +15507,11 @@
       </c>
       <c r="D27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -15538,11 +15557,11 @@
       </c>
       <c r="F28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -15584,11 +15603,11 @@
       </c>
       <c r="G29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -15614,11 +15633,11 @@
       </c>
       <c r="D30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -15648,7 +15667,7 @@
       </c>
       <c r="B31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -15676,7 +15695,7 @@
       </c>
       <c r="I31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J31">
         <f t="shared" si="0"/>
@@ -15702,11 +15721,11 @@
       </c>
       <c r="E32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -15739,11 +15758,11 @@
       </c>
       <c r="D33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -15773,11 +15792,11 @@
       </c>
       <c r="B34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -15819,11 +15838,11 @@
       </c>
       <c r="C35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -15881,11 +15900,11 @@
       </c>
       <c r="H36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J36">
         <f t="shared" si="0"/>
@@ -15907,11 +15926,11 @@
       </c>
       <c r="D37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -15957,11 +15976,11 @@
       </c>
       <c r="F38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -16003,11 +16022,11 @@
       </c>
       <c r="G39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -16033,11 +16052,11 @@
       </c>
       <c r="D40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -16067,7 +16086,7 @@
       </c>
       <c r="B41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -16095,7 +16114,7 @@
       </c>
       <c r="I41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J41">
         <f t="shared" si="0"/>
@@ -16121,11 +16140,11 @@
       </c>
       <c r="E42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -16150,7 +16169,7 @@
       </c>
       <c r="B43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -16178,7 +16197,7 @@
       </c>
       <c r="I43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J43">
         <f t="shared" si="0"/>
@@ -16192,11 +16211,11 @@
       </c>
       <c r="B44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -16238,11 +16257,11 @@
       </c>
       <c r="C45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -16300,11 +16319,11 @@
       </c>
       <c r="H46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J46">
         <f t="shared" si="0"/>
@@ -16326,11 +16345,11 @@
       </c>
       <c r="D47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -16376,11 +16395,11 @@
       </c>
       <c r="F48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -16422,11 +16441,11 @@
       </c>
       <c r="G49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -16452,11 +16471,11 @@
       </c>
       <c r="D50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -16486,7 +16505,7 @@
       </c>
       <c r="B51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -16514,7 +16533,7 @@
       </c>
       <c r="I51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J51">
         <f t="shared" si="0"/>
@@ -16540,11 +16559,11 @@
       </c>
       <c r="E52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -16581,11 +16600,11 @@
       </c>
       <c r="E53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -16611,11 +16630,11 @@
       </c>
       <c r="B54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -16657,11 +16676,11 @@
       </c>
       <c r="C55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -16719,11 +16738,11 @@
       </c>
       <c r="H56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J56">
         <f t="shared" si="0"/>
@@ -16745,11 +16764,11 @@
       </c>
       <c r="D57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -16795,11 +16814,11 @@
       </c>
       <c r="F58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -16841,11 +16860,11 @@
       </c>
       <c r="G59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -16871,11 +16890,11 @@
       </c>
       <c r="D60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -16905,7 +16924,7 @@
       </c>
       <c r="B61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -16933,7 +16952,7 @@
       </c>
       <c r="I61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J61">
         <f t="shared" si="0"/>
@@ -16959,11 +16978,11 @@
       </c>
       <c r="E62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -16991,8 +17010,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{17A088E6-F509-42D6-9A20-864F2282606E}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17030,11 +17049,14 @@
         <f>[1]!directions</f>
         <v>離(S) 9</v>
       </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2">
         <f>INDEX([1]!EarthPlateMatrix, -(-9+$K$2), COLUMN())</f>
-        <v>陰六</v>
+        <v>-6</v>
       </c>
       <c r="B2" t="str">
         <f>INDEX([1]!EarthPlateMatrix, -(-9+$K$2), COLUMN())</f>
@@ -17082,11 +17104,11 @@
       </c>
       <c r="B3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -17128,11 +17150,11 @@
       </c>
       <c r="C4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -17190,11 +17212,11 @@
       </c>
       <c r="H5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
@@ -17220,11 +17242,11 @@
       </c>
       <c r="E6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -17250,11 +17272,11 @@
       </c>
       <c r="B7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -17300,11 +17322,11 @@
       </c>
       <c r="D8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -17350,11 +17372,11 @@
       </c>
       <c r="F9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -17396,11 +17418,11 @@
       </c>
       <c r="G10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -17426,11 +17448,11 @@
       </c>
       <c r="D11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -17460,7 +17482,7 @@
       </c>
       <c r="B12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -17488,7 +17510,7 @@
       </c>
       <c r="I12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J12">
         <f t="shared" si="0"/>
@@ -17509,11 +17531,11 @@
       </c>
       <c r="D13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -17547,11 +17569,11 @@
       </c>
       <c r="C14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -17609,11 +17631,11 @@
       </c>
       <c r="H15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
@@ -17639,11 +17661,11 @@
       </c>
       <c r="E16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -17669,11 +17691,11 @@
       </c>
       <c r="B17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -17719,11 +17741,11 @@
       </c>
       <c r="D18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -17769,11 +17791,11 @@
       </c>
       <c r="F19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -17815,11 +17837,11 @@
       </c>
       <c r="G20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -17845,11 +17867,11 @@
       </c>
       <c r="D21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -17879,7 +17901,7 @@
       </c>
       <c r="B22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -17907,7 +17929,7 @@
       </c>
       <c r="I22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J22">
         <f t="shared" si="0"/>
@@ -17936,11 +17958,11 @@
       </c>
       <c r="F23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -17966,11 +17988,11 @@
       </c>
       <c r="C24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -18028,11 +18050,11 @@
       </c>
       <c r="H25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
@@ -18058,11 +18080,11 @@
       </c>
       <c r="E26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -18088,11 +18110,11 @@
       </c>
       <c r="B27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -18138,11 +18160,11 @@
       </c>
       <c r="D28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -18188,11 +18210,11 @@
       </c>
       <c r="F29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -18234,11 +18256,11 @@
       </c>
       <c r="G30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -18264,11 +18286,11 @@
       </c>
       <c r="D31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -18298,7 +18320,7 @@
       </c>
       <c r="B32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -18326,7 +18348,7 @@
       </c>
       <c r="I32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J32">
         <f t="shared" si="0"/>
@@ -18359,11 +18381,11 @@
       </c>
       <c r="G33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -18385,11 +18407,11 @@
       </c>
       <c r="C34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -18447,11 +18469,11 @@
       </c>
       <c r="H35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J35">
         <f t="shared" si="0"/>
@@ -18477,11 +18499,11 @@
       </c>
       <c r="E36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -18507,11 +18529,11 @@
       </c>
       <c r="B37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -18557,11 +18579,11 @@
       </c>
       <c r="D38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -18607,11 +18629,11 @@
       </c>
       <c r="F39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -18653,11 +18675,11 @@
       </c>
       <c r="G40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -18683,11 +18705,11 @@
       </c>
       <c r="D41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -18717,7 +18739,7 @@
       </c>
       <c r="B42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -18745,7 +18767,7 @@
       </c>
       <c r="I42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J42">
         <f t="shared" si="0"/>
@@ -18766,11 +18788,11 @@
       </c>
       <c r="D43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -18804,11 +18826,11 @@
       </c>
       <c r="C44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -18866,11 +18888,11 @@
       </c>
       <c r="H45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J45">
         <f t="shared" si="0"/>
@@ -18896,11 +18918,11 @@
       </c>
       <c r="E46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -18926,11 +18948,11 @@
       </c>
       <c r="B47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -18976,11 +18998,11 @@
       </c>
       <c r="D48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -19026,11 +19048,11 @@
       </c>
       <c r="F49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -19072,11 +19094,11 @@
       </c>
       <c r="G50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -19102,11 +19124,11 @@
       </c>
       <c r="D51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -19136,7 +19158,7 @@
       </c>
       <c r="B52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -19164,7 +19186,7 @@
       </c>
       <c r="I52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J52">
         <f t="shared" si="0"/>
@@ -19177,7 +19199,7 @@
       </c>
       <c r="B53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -19205,7 +19227,7 @@
       </c>
       <c r="I53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J53">
         <f t="shared" si="0"/>
@@ -19223,11 +19245,11 @@
       </c>
       <c r="C54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -19285,11 +19307,11 @@
       </c>
       <c r="H55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J55">
         <f t="shared" si="0"/>
@@ -19315,11 +19337,11 @@
       </c>
       <c r="E56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -19345,11 +19367,11 @@
       </c>
       <c r="B57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -19395,11 +19417,11 @@
       </c>
       <c r="D58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -19445,11 +19467,11 @@
       </c>
       <c r="F59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -19491,11 +19513,11 @@
       </c>
       <c r="G60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -19521,11 +19543,11 @@
       </c>
       <c r="D61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -19555,7 +19577,7 @@
       </c>
       <c r="B62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -19583,7 +19605,7 @@
       </c>
       <c r="I62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J62">
         <f t="shared" si="0"/>
@@ -19599,8 +19621,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1886408-381D-44EA-9A28-8DA2A3BE4164}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19638,11 +19660,14 @@
         <f>[1]!directions</f>
         <v>離(S) 9</v>
       </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2">
         <f>INDEX([1]!EarthPlateMatrix, -(-9+$K$2), COLUMN())</f>
-        <v>陰七</v>
+        <v>-7</v>
       </c>
       <c r="B2" t="str">
         <f>INDEX([1]!EarthPlateMatrix, -(-9+$K$2), COLUMN())</f>
@@ -19694,11 +19719,11 @@
       </c>
       <c r="C3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -19756,11 +19781,11 @@
       </c>
       <c r="H4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
@@ -19786,11 +19811,11 @@
       </c>
       <c r="E5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -19816,7 +19841,7 @@
       </c>
       <c r="B6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -19844,7 +19869,7 @@
       </c>
       <c r="I6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J6">
         <f t="shared" si="0"/>
@@ -19862,11 +19887,11 @@
       </c>
       <c r="C7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -19900,11 +19925,11 @@
       </c>
       <c r="B8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -19950,11 +19975,11 @@
       </c>
       <c r="D9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -20000,11 +20025,11 @@
       </c>
       <c r="F10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -20046,11 +20071,11 @@
       </c>
       <c r="G11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -20076,11 +20101,11 @@
       </c>
       <c r="D12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -20109,11 +20134,11 @@
       </c>
       <c r="B13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -20175,11 +20200,11 @@
       </c>
       <c r="H14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
@@ -20205,11 +20230,11 @@
       </c>
       <c r="E15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -20235,7 +20260,7 @@
       </c>
       <c r="B16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -20263,7 +20288,7 @@
       </c>
       <c r="I16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J16">
         <f t="shared" si="0"/>
@@ -20281,11 +20306,11 @@
       </c>
       <c r="C17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -20319,11 +20344,11 @@
       </c>
       <c r="B18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -20369,11 +20394,11 @@
       </c>
       <c r="D19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -20419,11 +20444,11 @@
       </c>
       <c r="F20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -20465,11 +20490,11 @@
       </c>
       <c r="G21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -20495,11 +20520,11 @@
       </c>
       <c r="D22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -20536,11 +20561,11 @@
       </c>
       <c r="D23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -20594,11 +20619,11 @@
       </c>
       <c r="H24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
@@ -20624,11 +20649,11 @@
       </c>
       <c r="E25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -20654,7 +20679,7 @@
       </c>
       <c r="B26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -20682,7 +20707,7 @@
       </c>
       <c r="I26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J26">
         <f t="shared" si="0"/>
@@ -20700,11 +20725,11 @@
       </c>
       <c r="C27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -20738,11 +20763,11 @@
       </c>
       <c r="B28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -20788,11 +20813,11 @@
       </c>
       <c r="D29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -20838,11 +20863,11 @@
       </c>
       <c r="F30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -20884,11 +20909,11 @@
       </c>
       <c r="G31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -20914,11 +20939,11 @@
       </c>
       <c r="D32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -20963,11 +20988,11 @@
       </c>
       <c r="F33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -21013,11 +21038,11 @@
       </c>
       <c r="H34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
@@ -21043,11 +21068,11 @@
       </c>
       <c r="E35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -21073,7 +21098,7 @@
       </c>
       <c r="B36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -21101,7 +21126,7 @@
       </c>
       <c r="I36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J36">
         <f t="shared" si="0"/>
@@ -21119,11 +21144,11 @@
       </c>
       <c r="C37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -21157,11 +21182,11 @@
       </c>
       <c r="B38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -21207,11 +21232,11 @@
       </c>
       <c r="D39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -21257,11 +21282,11 @@
       </c>
       <c r="F40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -21303,11 +21328,11 @@
       </c>
       <c r="G41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -21333,11 +21358,11 @@
       </c>
       <c r="D42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -21386,11 +21411,11 @@
       </c>
       <c r="G43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -21432,11 +21457,11 @@
       </c>
       <c r="H44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J44">
         <f t="shared" si="0"/>
@@ -21462,11 +21487,11 @@
       </c>
       <c r="E45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -21492,7 +21517,7 @@
       </c>
       <c r="B46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -21520,7 +21545,7 @@
       </c>
       <c r="I46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J46">
         <f t="shared" si="0"/>
@@ -21538,11 +21563,11 @@
       </c>
       <c r="C47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -21576,11 +21601,11 @@
       </c>
       <c r="B48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -21626,11 +21651,11 @@
       </c>
       <c r="D49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -21676,11 +21701,11 @@
       </c>
       <c r="F50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -21722,11 +21747,11 @@
       </c>
       <c r="G51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -21752,11 +21777,11 @@
       </c>
       <c r="D52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -21793,11 +21818,11 @@
       </c>
       <c r="D53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -21851,11 +21876,11 @@
       </c>
       <c r="H54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J54">
         <f t="shared" si="0"/>
@@ -21881,11 +21906,11 @@
       </c>
       <c r="E55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -21911,7 +21936,7 @@
       </c>
       <c r="B56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -21939,7 +21964,7 @@
       </c>
       <c r="I56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J56">
         <f t="shared" si="0"/>
@@ -21957,11 +21982,11 @@
       </c>
       <c r="C57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -21995,11 +22020,11 @@
       </c>
       <c r="B58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -22045,11 +22070,11 @@
       </c>
       <c r="D59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -22095,11 +22120,11 @@
       </c>
       <c r="F60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -22141,11 +22166,11 @@
       </c>
       <c r="G61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -22171,11 +22196,11 @@
       </c>
       <c r="D62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -22207,8 +22232,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CCB6DEBB-A6A8-4747-934B-32D498213D27}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K3" sqref="K3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -22246,11 +22271,14 @@
         <f>[1]!directions</f>
         <v>離(S) 9</v>
       </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2">
         <f>INDEX([1]!EarthPlateMatrix, -(-9+$K$2), COLUMN())</f>
-        <v>陰八</v>
+        <v>-8</v>
       </c>
       <c r="B2" t="str">
         <f>INDEX([1]!EarthPlateMatrix, -(-9+$K$2), COLUMN())</f>
@@ -22322,11 +22350,11 @@
       </c>
       <c r="H3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J3">
         <f t="shared" ref="J3:J62" si="0">$K$2</f>
@@ -22352,11 +22380,11 @@
       </c>
       <c r="E4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -22382,7 +22410,7 @@
       </c>
       <c r="B5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -22410,7 +22438,7 @@
       </c>
       <c r="I5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J5">
         <f t="shared" si="0"/>
@@ -22432,11 +22460,11 @@
       </c>
       <c r="D6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -22490,11 +22518,11 @@
       </c>
       <c r="H7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J7">
         <f t="shared" si="0"/>
@@ -22512,11 +22540,11 @@
       </c>
       <c r="C8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -22550,11 +22578,11 @@
       </c>
       <c r="B9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -22600,11 +22628,11 @@
       </c>
       <c r="D10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -22650,11 +22678,11 @@
       </c>
       <c r="F11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -22696,11 +22724,11 @@
       </c>
       <c r="G12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -22721,11 +22749,11 @@
       </c>
       <c r="C13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -22771,11 +22799,11 @@
       </c>
       <c r="E14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -22801,7 +22829,7 @@
       </c>
       <c r="B15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -22829,7 +22857,7 @@
       </c>
       <c r="I15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J15">
         <f t="shared" si="0"/>
@@ -22851,11 +22879,11 @@
       </c>
       <c r="D16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -22909,11 +22937,11 @@
       </c>
       <c r="H17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J17">
         <f t="shared" si="0"/>
@@ -22931,11 +22959,11 @@
       </c>
       <c r="C18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -22969,11 +22997,11 @@
       </c>
       <c r="B19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -23019,11 +23047,11 @@
       </c>
       <c r="D20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -23069,11 +23097,11 @@
       </c>
       <c r="F21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -23115,11 +23143,11 @@
       </c>
       <c r="G22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -23136,11 +23164,11 @@
       </c>
       <c r="B23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -23190,11 +23218,11 @@
       </c>
       <c r="E24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -23220,7 +23248,7 @@
       </c>
       <c r="B25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -23248,7 +23276,7 @@
       </c>
       <c r="I25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J25">
         <f t="shared" si="0"/>
@@ -23270,11 +23298,11 @@
       </c>
       <c r="D26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -23328,11 +23356,11 @@
       </c>
       <c r="H27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J27">
         <f t="shared" si="0"/>
@@ -23350,11 +23378,11 @@
       </c>
       <c r="C28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -23388,11 +23416,11 @@
       </c>
       <c r="B29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -23438,11 +23466,11 @@
       </c>
       <c r="D30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -23488,11 +23516,11 @@
       </c>
       <c r="F31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -23534,11 +23562,11 @@
       </c>
       <c r="G32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -23563,11 +23591,11 @@
       </c>
       <c r="D33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -23609,11 +23637,11 @@
       </c>
       <c r="E34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -23639,7 +23667,7 @@
       </c>
       <c r="B35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -23667,7 +23695,7 @@
       </c>
       <c r="I35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J35">
         <f t="shared" si="0"/>
@@ -23689,11 +23717,11 @@
       </c>
       <c r="D36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -23747,11 +23775,11 @@
       </c>
       <c r="H37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J37">
         <f t="shared" si="0"/>
@@ -23769,11 +23797,11 @@
       </c>
       <c r="C38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -23807,11 +23835,11 @@
       </c>
       <c r="B39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -23857,11 +23885,11 @@
       </c>
       <c r="D40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -23907,11 +23935,11 @@
       </c>
       <c r="F41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -23953,11 +23981,11 @@
       </c>
       <c r="G42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -23990,11 +24018,11 @@
       </c>
       <c r="F43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -24028,11 +24056,11 @@
       </c>
       <c r="E44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -24058,7 +24086,7 @@
       </c>
       <c r="B45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -24086,7 +24114,7 @@
       </c>
       <c r="I45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J45">
         <f t="shared" si="0"/>
@@ -24108,11 +24136,11 @@
       </c>
       <c r="D46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -24166,11 +24194,11 @@
       </c>
       <c r="H47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J47">
         <f t="shared" si="0"/>
@@ -24188,11 +24216,11 @@
       </c>
       <c r="C48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -24226,11 +24254,11 @@
       </c>
       <c r="B49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -24276,11 +24304,11 @@
       </c>
       <c r="D50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -24326,11 +24354,11 @@
       </c>
       <c r="F51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -24372,11 +24400,11 @@
       </c>
       <c r="G52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -24413,11 +24441,11 @@
       </c>
       <c r="G53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -24447,11 +24475,11 @@
       </c>
       <c r="E54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -24477,7 +24505,7 @@
       </c>
       <c r="B55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -24505,7 +24533,7 @@
       </c>
       <c r="I55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J55">
         <f t="shared" si="0"/>
@@ -24527,11 +24555,11 @@
       </c>
       <c r="D56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -24585,11 +24613,11 @@
       </c>
       <c r="H57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J57">
         <f t="shared" si="0"/>
@@ -24607,11 +24635,11 @@
       </c>
       <c r="C58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -24645,11 +24673,11 @@
       </c>
       <c r="B59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -24695,11 +24723,11 @@
       </c>
       <c r="D60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -24745,11 +24773,11 @@
       </c>
       <c r="F61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -24791,11 +24819,11 @@
       </c>
       <c r="G62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -24817,10 +24845,10 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" ySplit="2" topLeftCell="B3" activePane="bottomRight" state="frozen"/>
-      <selection activeCell="M29" sqref="M29"/>
-      <selection pane="topRight" activeCell="M29" sqref="M29"/>
-      <selection pane="bottomLeft" activeCell="M29" sqref="M29"/>
-      <selection pane="bottomRight" activeCell="J13" sqref="J13"/>
+      <selection activeCell="J1" sqref="J1"/>
+      <selection pane="topRight" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomLeft" activeCell="J1" sqref="J1"/>
+      <selection pane="bottomRight" activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -24858,11 +24886,14 @@
         <f>[1]!directions</f>
         <v>離(S) 9</v>
       </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2">
         <f>INDEX([1]!EarthPlateMatrix, -(-9+$K$2), COLUMN())</f>
-        <v>陰九</v>
+        <v>-9</v>
       </c>
       <c r="B2" t="str">
         <f>INDEX([1]!EarthPlateMatrix, -(-9+$K$2), COLUMN())</f>
@@ -24922,11 +24953,11 @@
       </c>
       <c r="E3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G3" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A3), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -24952,7 +24983,7 @@
       </c>
       <c r="B4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -24980,7 +25011,7 @@
       </c>
       <c r="I4" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A4), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J4">
         <f t="shared" si="0"/>
@@ -25002,11 +25033,11 @@
       </c>
       <c r="D5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F5" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A5), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -25056,11 +25087,11 @@
       </c>
       <c r="G6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I6" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A6), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -25090,11 +25121,11 @@
       </c>
       <c r="E7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G7" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A7), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -25144,11 +25175,11 @@
       </c>
       <c r="H8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I8" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A8), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J8">
         <f t="shared" si="0"/>
@@ -25166,11 +25197,11 @@
       </c>
       <c r="C9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E9" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A9), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -25204,11 +25235,11 @@
       </c>
       <c r="B10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D10" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A10), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -25254,11 +25285,11 @@
       </c>
       <c r="D11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F11" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A11), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -25304,11 +25335,11 @@
       </c>
       <c r="F12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H12" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A12), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -25353,11 +25384,11 @@
       </c>
       <c r="H13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I13" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A13), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J13">
         <f t="shared" si="0"/>
@@ -25371,7 +25402,7 @@
       </c>
       <c r="B14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -25399,7 +25430,7 @@
       </c>
       <c r="I14" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A14), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J14">
         <f t="shared" si="0"/>
@@ -25421,11 +25452,11 @@
       </c>
       <c r="D15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F15" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A15), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -25475,11 +25506,11 @@
       </c>
       <c r="G16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I16" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A16), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -25509,11 +25540,11 @@
       </c>
       <c r="E17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G17" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A17), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -25563,11 +25594,11 @@
       </c>
       <c r="H18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I18" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A18), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J18">
         <f t="shared" si="0"/>
@@ -25585,11 +25616,11 @@
       </c>
       <c r="C19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E19" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A19), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -25623,11 +25654,11 @@
       </c>
       <c r="B20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D20" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A20), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -25673,11 +25704,11 @@
       </c>
       <c r="D21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F21" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A21), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -25723,11 +25754,11 @@
       </c>
       <c r="F22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H22" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A22), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -25752,11 +25783,11 @@
       </c>
       <c r="C23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E23" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A23), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -25790,7 +25821,7 @@
       </c>
       <c r="B24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -25818,7 +25849,7 @@
       </c>
       <c r="I24" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A24), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J24">
         <f t="shared" si="0"/>
@@ -25840,11 +25871,11 @@
       </c>
       <c r="D25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F25" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A25), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -25894,11 +25925,11 @@
       </c>
       <c r="G26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I26" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A26), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -25928,11 +25959,11 @@
       </c>
       <c r="E27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G27" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A27), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -25982,11 +26013,11 @@
       </c>
       <c r="H28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I28" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A28), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J28">
         <f t="shared" si="0"/>
@@ -26004,11 +26035,11 @@
       </c>
       <c r="C29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E29" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A29), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -26042,11 +26073,11 @@
       </c>
       <c r="B30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D30" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A30), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -26092,11 +26123,11 @@
       </c>
       <c r="D31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F31" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A31), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -26142,11 +26173,11 @@
       </c>
       <c r="F32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H32" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A32), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -26167,11 +26198,11 @@
       </c>
       <c r="B33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D33" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A33), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -26209,7 +26240,7 @@
       </c>
       <c r="B34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -26237,7 +26268,7 @@
       </c>
       <c r="I34" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A34), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J34">
         <f t="shared" si="0"/>
@@ -26259,11 +26290,11 @@
       </c>
       <c r="D35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F35" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A35), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -26313,11 +26344,11 @@
       </c>
       <c r="G36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I36" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A36), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -26347,11 +26378,11 @@
       </c>
       <c r="E37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G37" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A37), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -26401,11 +26432,11 @@
       </c>
       <c r="H38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I38" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A38), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J38">
         <f t="shared" si="0"/>
@@ -26423,11 +26454,11 @@
       </c>
       <c r="C39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E39" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A39), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -26461,11 +26492,11 @@
       </c>
       <c r="B40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D40" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A40), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -26511,11 +26542,11 @@
       </c>
       <c r="D41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F41" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A41), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -26561,11 +26592,11 @@
       </c>
       <c r="F42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H42" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A42), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -26594,11 +26625,11 @@
       </c>
       <c r="D43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F43" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A43), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -26628,7 +26659,7 @@
       </c>
       <c r="B44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -26656,7 +26687,7 @@
       </c>
       <c r="I44" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A44), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J44">
         <f t="shared" si="0"/>
@@ -26678,11 +26709,11 @@
       </c>
       <c r="D45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F45" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A45), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -26732,11 +26763,11 @@
       </c>
       <c r="G46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I46" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A46), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -26766,11 +26797,11 @@
       </c>
       <c r="E47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G47" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A47), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -26820,11 +26851,11 @@
       </c>
       <c r="H48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I48" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A48), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J48">
         <f t="shared" si="0"/>
@@ -26842,11 +26873,11 @@
       </c>
       <c r="C49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E49" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A49), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -26880,11 +26911,11 @@
       </c>
       <c r="B50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D50" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A50), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -26930,11 +26961,11 @@
       </c>
       <c r="D51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F51" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A51), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -26980,11 +27011,11 @@
       </c>
       <c r="F52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H52" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A52), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -27021,11 +27052,11 @@
       </c>
       <c r="F53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H53" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A53), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -27047,7 +27078,7 @@
       </c>
       <c r="B54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="C54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -27075,7 +27106,7 @@
       </c>
       <c r="I54" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A54), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="J54">
         <f t="shared" si="0"/>
@@ -27097,11 +27128,11 @@
       </c>
       <c r="D55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F55" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A55), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -27151,11 +27182,11 @@
       </c>
       <c r="G56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="H56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="I56" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A56), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -27185,11 +27216,11 @@
       </c>
       <c r="E57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="F57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="G57" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A57), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -27239,11 +27270,11 @@
       </c>
       <c r="H58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="I58" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A58), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="J58">
         <f t="shared" si="0"/>
@@ -27261,11 +27292,11 @@
       </c>
       <c r="C59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="D59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="E59" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A59), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -27299,11 +27330,11 @@
       </c>
       <c r="B60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="C60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="D60" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A60), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -27349,11 +27380,11 @@
       </c>
       <c r="D61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="E61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="F61" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A61), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -27399,11 +27430,11 @@
       </c>
       <c r="F62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>陳</v>
+        <v>虎</v>
       </c>
       <c r="G62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
-        <v>雀</v>
+        <v>玄</v>
       </c>
       <c r="H62" t="str">
         <f>INDEX([1]!YinGods, MOD((COLUMN() -2) +(COLUMN($E$2)-1)-(IFERROR(MATCH(LEFT($A62), ThisEarthPlate, 0), 7))+8, 8)+1)</f>
@@ -27427,8 +27458,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7CD20792-CE0F-4890-9134-B0F2679FB6AE}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H2" sqref="H2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -27466,11 +27497,14 @@
         <f>[1]!directions</f>
         <v>離(S) 9</v>
       </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2">
         <f>INDEX([1]!EarthPlateMatrix, $K$2, COLUMN())</f>
-        <v>陽二</v>
+        <v>2</v>
       </c>
       <c r="B2" t="str">
         <f>INDEX([1]!EarthPlateMatrix, $K$2, COLUMN())</f>
@@ -30035,8 +30069,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{850FCDFF-5AC2-4F51-8AB4-DF501703DA29}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30074,11 +30108,14 @@
         <f>[1]!directions</f>
         <v>離(S) 9</v>
       </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2">
         <f>INDEX([1]!EarthPlateMatrix, $K$2, COLUMN())</f>
-        <v>陽三</v>
+        <v>3</v>
       </c>
       <c r="B2" t="str">
         <f>INDEX([1]!EarthPlateMatrix, $K$2, COLUMN())</f>
@@ -32643,8 +32680,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B1552102-134B-47CE-AACA-E215E71C6922}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -32682,11 +32719,14 @@
         <f>[1]!directions</f>
         <v>離(S) 9</v>
       </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2">
         <f>INDEX([1]!EarthPlateMatrix, $K$2, COLUMN())</f>
-        <v>陽四</v>
+        <v>4</v>
       </c>
       <c r="B2" t="str">
         <f>INDEX([1]!EarthPlateMatrix, $K$2, COLUMN())</f>
@@ -35251,8 +35291,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51682C8-6A67-4C2B-8907-D7B9F8E39556}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -35290,11 +35330,14 @@
         <f>[1]!directions</f>
         <v>離(S) 9</v>
       </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2">
         <f>INDEX([1]!EarthPlateMatrix, $K$2, COLUMN())</f>
-        <v>陽五</v>
+        <v>5</v>
       </c>
       <c r="B2" t="str">
         <f>INDEX([1]!EarthPlateMatrix, $K$2, COLUMN())</f>
@@ -37859,8 +37902,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{59E13C2F-CD5D-4D4D-B621-BDC49848088D}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -37898,11 +37941,14 @@
         <f>[1]!directions</f>
         <v>離(S) 9</v>
       </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2">
         <f>INDEX([1]!EarthPlateMatrix, $K$2, COLUMN())</f>
-        <v>陽六</v>
+        <v>6</v>
       </c>
       <c r="B2" t="str">
         <f>INDEX([1]!EarthPlateMatrix, $K$2, COLUMN())</f>
@@ -40467,8 +40513,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AAC5EBA-9EA3-4837-8C76-A90D7C9DF593}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -40506,11 +40552,14 @@
         <f>[1]!directions</f>
         <v>離(S) 9</v>
       </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2">
         <f>INDEX([1]!EarthPlateMatrix, $K$2, COLUMN())</f>
-        <v>陽七</v>
+        <v>7</v>
       </c>
       <c r="B2" t="str">
         <f>INDEX([1]!EarthPlateMatrix, $K$2, COLUMN())</f>
@@ -43075,8 +43124,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C7B0D8C2-D740-4BFC-A28C-3D81D20946F8}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -43114,11 +43163,14 @@
         <f>[1]!directions</f>
         <v>離(S) 9</v>
       </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2">
         <f>INDEX([1]!EarthPlateMatrix, $K$2, COLUMN())</f>
-        <v>陽八</v>
+        <v>8</v>
       </c>
       <c r="B2" t="str">
         <f>INDEX([1]!EarthPlateMatrix, $K$2, COLUMN())</f>
@@ -45683,8 +45735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CD1BA983-1B72-498F-BA43-15629EAF6250}">
   <dimension ref="A1:K62"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L2" sqref="L2"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J1" sqref="J1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -45722,11 +45774,14 @@
         <f>[1]!directions</f>
         <v>離(S) 9</v>
       </c>
+      <c r="J1" t="s">
+        <v>6</v>
+      </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A2" t="str">
+      <c r="A2">
         <f>INDEX([1]!EarthPlateMatrix, $K$2, COLUMN())</f>
-        <v>陽九</v>
+        <v>9</v>
       </c>
       <c r="B2" t="str">
         <f>INDEX([1]!EarthPlateMatrix, $K$2, COLUMN())</f>
